--- a/RunLog_Test.xlsx
+++ b/RunLog_Test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adoyn\Documents\School\Grad School Courses\Summer 2024\HCI 584X\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adoyn\Documents\School\Grad School Courses\Summer 2024\HCI 584X\Project\Running_Log_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0482B5-B92E-4E4D-A05A-6653FC219689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F071B3D5-203B-46B8-B3DE-5D3AF8AC238E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3225" yWindow="570" windowWidth="24810" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32655" yWindow="570" windowWidth="24180" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -110,15 +110,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1165,6 +1168,75 @@
         <v>6.5</v>
       </c>
     </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3">
+        <v>45323</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3">
+        <v>45324</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
+      </c>
+      <c r="F34">
+        <v>5</v>
+      </c>
+      <c r="G34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3">
+        <v>45332</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
